--- a/Impedance_Potential_Board/Impedance_Potential_No3p5Audio_PnP.xlsx
+++ b/Impedance_Potential_Board/Impedance_Potential_No3p5Audio_PnP.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="84">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -112,9 +112,6 @@
     <t xml:space="preserve">C23</t>
   </si>
   <si>
-    <t xml:space="preserve">C24</t>
-  </si>
-  <si>
     <t xml:space="preserve">C3</t>
   </si>
   <si>
@@ -148,7 +145,10 @@
     <t xml:space="preserve">D1</t>
   </si>
   <si>
-    <t xml:space="preserve">Blue LED</t>
+    <t xml:space="preserve"> RED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LED-0603</t>
   </si>
   <si>
     <t xml:space="preserve">D2</t>
@@ -241,7 +241,7 @@
     <t xml:space="preserve">R23</t>
   </si>
   <si>
-    <t xml:space="preserve">R3</t>
+    <t xml:space="preserve">200k</t>
   </si>
   <si>
     <t xml:space="preserve">R4</t>
@@ -281,11 +281,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -309,12 +310,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -372,7 +367,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -386,11 +381,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -410,18 +401,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="59:61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F:F"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="31.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.3"/>
   </cols>
   <sheetData>
@@ -444,7 +435,7 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -464,10 +455,10 @@
       <c r="E2" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -476,10 +467,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>42.95</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>28.35</v>
+        <v>28.05</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
@@ -487,10 +478,10 @@
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -510,10 +501,10 @@
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -533,10 +524,10 @@
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -556,10 +547,10 @@
       <c r="E6" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -579,10 +570,10 @@
       <c r="E7" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -602,10 +593,10 @@
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -625,10 +616,10 @@
       <c r="E9" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -648,10 +639,10 @@
       <c r="E10" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -671,10 +662,10 @@
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -694,10 +685,10 @@
       <c r="E12" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -717,10 +708,10 @@
       <c r="E13" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -729,21 +720,21 @@
         <v>25</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>40.7</v>
+        <v>29.8</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>22.25</v>
+        <v>18.15</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -763,10 +754,10 @@
       <c r="E15" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -786,10 +777,10 @@
       <c r="E16" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -809,10 +800,10 @@
       <c r="E17" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -821,30 +812,30 @@
         <v>30</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>29.5</v>
+        <v>36.6</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>16.9</v>
+        <v>24.7</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="3" t="n">
         <v>603</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>36.6</v>
+        <v>33.3</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>24.7</v>
@@ -855,10 +846,10 @@
       <c r="E19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="1" t="n">
+      <c r="F19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -867,30 +858,30 @@
         <v>33</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>33.3</v>
+        <v>34.9</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>24.7</v>
+        <v>23.2</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="3" t="n">
         <v>603</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>34.9</v>
+        <v>31.45</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>23.2</v>
@@ -899,12 +890,12 @@
         <v>8</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -913,7 +904,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>31.45</v>
+        <v>28.1</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>23.2</v>
@@ -924,10 +915,10 @@
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="1" t="n">
+      <c r="F22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -936,33 +927,33 @@
         <v>37</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>28.1</v>
+        <v>29.8</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>23.2</v>
+        <v>21.7</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="3" t="n">
         <v>603</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>29.8</v>
+        <v>30.5</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>21.7</v>
+        <v>27.25</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>8</v>
@@ -970,10 +961,10 @@
       <c r="E24" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="1" t="n">
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="3" t="n">
         <v>603</v>
       </c>
     </row>
@@ -982,79 +973,79 @@
         <v>40</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>30.5</v>
+        <v>64</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>27.25</v>
+        <v>61.5</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>603</v>
+        <v>270</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>64</v>
+        <v>59.5</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>61.5</v>
+        <v>11.75</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>603</v>
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>59.5</v>
+        <v>45.5</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>11.75</v>
+        <v>4.4</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>45.5</v>
+        <v>28</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>8</v>
@@ -1062,68 +1053,68 @@
       <c r="E28" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="F29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>42</v>
+        <v>24.5</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>24.5</v>
+        <v>24.45</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>2.5</v>
+        <v>11.8</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>8</v>
@@ -1131,91 +1122,91 @@
       <c r="E31" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>24.45</v>
+        <v>10.5</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>11.8</v>
+        <v>4.5</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="F32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>10.5</v>
+        <v>35</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>4.5</v>
+        <v>28.5</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>35</v>
+        <v>21.2</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>28.5</v>
+        <v>16.9</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>603</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>21.2</v>
+        <v>34.2</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>16.9</v>
+        <v>61.45</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>8</v>
@@ -1223,8 +1214,8 @@
       <c r="E35" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>55</v>
+      <c r="F35" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>603</v>
@@ -1232,10 +1223,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>34.2</v>
+        <v>38.85</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>61.45</v>
@@ -1246,8 +1237,8 @@
       <c r="E36" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F36" s="1" t="n">
-        <v>10</v>
+      <c r="F36" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>603</v>
@@ -1255,10 +1246,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>38.85</v>
+        <v>41.95</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>61.45</v>
@@ -1278,10 +1269,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>41.95</v>
+        <v>35.75</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>61.45</v>
@@ -1301,10 +1292,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>35.75</v>
+        <v>48.15</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>61.45</v>
@@ -1324,13 +1315,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>48.15</v>
+        <v>32.65</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>61.45</v>
+        <v>61.48</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>8</v>
@@ -1347,22 +1338,22 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>32.65</v>
+        <v>61</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>61.48</v>
+        <v>61.5</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>603</v>
@@ -1370,22 +1361,22 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>61</v>
+        <v>45.05</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>61.5</v>
+        <v>61.45</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>603</v>
@@ -1393,22 +1384,22 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>45.05</v>
+        <v>34.9</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>61.45</v>
+        <v>18.75</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>603</v>
@@ -1416,22 +1407,22 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>34.9</v>
+        <v>37.3</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>18.75</v>
+        <v>19.65</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="F44" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="F44" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>603</v>
@@ -1439,13 +1430,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>37.3</v>
+        <v>13.8</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>19.65</v>
+        <v>16.9</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>8</v>
@@ -1453,8 +1444,8 @@
       <c r="E45" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F45" s="1" t="n">
-        <v>0</v>
+      <c r="F45" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>603</v>
@@ -1462,13 +1453,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>13.8</v>
+        <v>32.5</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>16.9</v>
+        <v>19.65</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>8</v>
@@ -1476,8 +1467,8 @@
       <c r="E46" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>55</v>
+      <c r="F46" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>603</v>
@@ -1485,13 +1476,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>32.5</v>
+        <v>24.2</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>19.65</v>
+        <v>18.6</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>8</v>
@@ -1508,10 +1499,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>24.2</v>
+        <v>16.8</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>18.6</v>
@@ -1531,13 +1522,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>16.8</v>
+        <v>28.25</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>18.6</v>
+        <v>18.15</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>8</v>
@@ -1545,8 +1536,8 @@
       <c r="E49" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F49" s="1" t="n">
-        <v>0</v>
+      <c r="F49" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>603</v>
@@ -1554,22 +1545,22 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>31</v>
+        <v>41.6</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>18.6</v>
+        <v>24.7</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="F50" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>603</v>
@@ -1577,13 +1568,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>28</v>
+        <v>49.7</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>16.9</v>
+        <v>61.45</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>8</v>
@@ -1591,8 +1582,8 @@
       <c r="E51" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>55</v>
+      <c r="F51" s="3" t="n">
+        <v>10</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>603</v>
@@ -1600,22 +1591,22 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>40.7</v>
+        <v>46.6</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>24.7</v>
+        <v>61.45</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>75</v>
+        <v>270</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="G52" s="1" t="n">
         <v>603</v>
@@ -1623,10 +1614,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>49.7</v>
+        <v>43.5</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>61.45</v>
@@ -1646,10 +1637,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>46.6</v>
+        <v>40.4</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>61.45</v>
@@ -1669,10 +1660,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>43.5</v>
+        <v>37.3</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>61.45</v>
@@ -1692,70 +1683,24 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>40.4</v>
+        <v>47.45</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>61.45</v>
+        <v>30.95</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="F56" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G56" s="1" t="n">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>61.45</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>270</v>
-      </c>
-      <c r="F57" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G57" s="1" t="n">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>47.45</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>30.95</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>83</v>
       </c>
     </row>
